--- a/arxiv_quantum_excel.xlsx
+++ b/arxiv_quantum_excel.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O111"/>
+  <dimension ref="A1:O140"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8156,6 +8156,1908 @@
         </is>
       </c>
     </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>http://arxiv.org/abs/2509.04266v1</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>2025-09-04T14:43:10Z</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>2025-09-04T14:43:10Z</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>Foundations of photonic quantum computation</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>This work aims to introduce the fundamental concepts required to perform computations on photonic quantum computers by presenting the gates specific to this architecture and highlighting the connections between standard Pauli gates and those available in photonic systems. The introduction navigates between physical considerations related to the optical components used, theoretical aspects concerning quantum operators, and a more applied section introducing implementations using the Perceval library developed by Quandela. This paper is intended for engineers and researchers familiar with Pauli gates and standard quantum concepts, looking at a clear and compact introduction to photonic components. A second part aims to introduce the concept of polarization, not from a theoretical perspective, but through its practical applications. To do so, we compare the similarities and differences between the original Grover's algorithm formulation and a version that leverages polarization. Gates specific to polarization are introduced and described in the context of the computations involved in Grover's algorithm. The description provided is as mathematical as possible and deliberately avoids physical considerations, in order to allow researchers familiar with "conventional" quantum circuits to more easily grasp the concepts.</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>Martin Bombardelli, Gérard Fleury, Philippe Lacomme, Bogdan Vulpescu</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr"/>
+      <c r="H112" t="inlineStr"/>
+      <c r="I112" t="inlineStr"/>
+      <c r="J112" t="inlineStr"/>
+      <c r="K112" t="inlineStr">
+        <is>
+          <t>quant-ph</t>
+        </is>
+      </c>
+      <c r="L112" t="inlineStr">
+        <is>
+          <t>quant-ph</t>
+        </is>
+      </c>
+      <c r="M112" t="inlineStr">
+        <is>
+          <t>http://arxiv.org/abs/2509.04266v1</t>
+        </is>
+      </c>
+      <c r="N112" t="inlineStr">
+        <is>
+          <t>http://arxiv.org/pdf/2509.04266v1</t>
+        </is>
+      </c>
+      <c r="O112" t="inlineStr">
+        <is>
+          <t>This paper introduces photonic quantum computation concepts, focusing on gates and their relation to Pauli gates. It details implementations using the Perceval library and explores polarization through the lens of Grover's algorithm. The presentation prioritizes mathematical clarity for those familiar with standard quantum circuit design.</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>http://arxiv.org/abs/2509.00771v1</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>2025-08-31T09:53:38Z</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>2025-08-31T09:53:38Z</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>Noise-Resilient Quantum Metrology with Quantum Computing</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>Quantum computing has made remarkable strides in recent years, as demonstrated by quantum supremacy experiments and the realization of high-fidelity, fault-tolerant gates. However, a major obstacle persists: practical real-world applications remain scarce, largely due to the inefficiency of loading classical data into quantum processors. Here, we propose an alternative strategy that shifts the focus from classical data encoding to directly processing quantum data. We target quantum metrology, a practical quantum technology whose precision is often constrained by realistic noise. We develop an experimentally feasible scheme in which a quantum computer optimizes information acquired from quantum metrology, thereby enhancing performance in noisy quantum metrology tasks and overcoming the classical-data-loading bottleneck. We demonstrate this approach through experimental implementation with nitrogen-vacancy centers in diamond and numerical simulations using models of distributed superconducting quantum processors. Our results show that this method improves the accuracy of sensing estimates and significantly boosts sensitivity, as quantified by the quantum Fisher information, thus offering a new pathway to harness near-term quantum computers for realistic quantum metrology.</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>Xiangyu Wang, Chenrong Liu, Xinqing Wang, Dawei Lu, Ying Dong</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr"/>
+      <c r="H113" t="inlineStr"/>
+      <c r="I113" t="inlineStr"/>
+      <c r="J113" t="inlineStr"/>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>quant-ph</t>
+        </is>
+      </c>
+      <c r="L113" t="inlineStr">
+        <is>
+          <t>quant-ph</t>
+        </is>
+      </c>
+      <c r="M113" t="inlineStr">
+        <is>
+          <t>http://arxiv.org/abs/2509.00771v1</t>
+        </is>
+      </c>
+      <c r="N113" t="inlineStr">
+        <is>
+          <t>http://arxiv.org/pdf/2509.00771v1</t>
+        </is>
+      </c>
+      <c r="O113" t="inlineStr">
+        <is>
+          <t>Quantum computing’s progress faces a bottleneck in data loading.
+This work introduces a strategy for directly processing quantum data, targeting quantum metrology.
+Experimental results demonstrate improved accuracy and sensitivity in noisy quantum metrology tasks using diamond NV centers.</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>http://arxiv.org/abs/2509.03856v1</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>2025-09-04T03:31:50Z</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>2025-09-04T03:31:50Z</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>Decoherence mitigation for geometric quantum computation</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>Geometric phases depend only on the evolution path determined by the closed circuit in the projective Hilbert space but not on evolution details of the quantum system, leading to geometric quantum computation possessing some intrinsic robustness against control errors. Coordinated with dynamical decoupling, geometric quantum computation admits additional resilience to the environment-induced decoherence. However, the previous schemes of geometric quantum computation protected by dynamical decoupling require multiple physical qubits to encode a logical qubit, which undoubtedly increases the consumption of physical-qubit resources and the difficulty in the implementation of the logical-qubit manipulation based on physical-qubit driving. In this work, we put forward a scheme of decoherence-mitigated geometric quantum computation based only on physical qubits rather than logical qubits, hence avoiding the additional overhead of physical-qubit resources for logical-qubit encoding as well as the difficulty in the manipulation of logical qubits. Moreover, our scheme focuses on the most general interaction between an individual qubit and its environment so that it mitigates not just dephasing noise but rather regular decoherence. Our proposal thus represents a more realistic and effective approach towards the realization of geometric control with decoherence mitigation.</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>X. Y. Sun, P. Z. Zhao</t>
+        </is>
+      </c>
+      <c r="G114" t="inlineStr"/>
+      <c r="H114" t="inlineStr">
+        <is>
+          <t>10.1103/7y8p-85k3</t>
+        </is>
+      </c>
+      <c r="I114" t="inlineStr">
+        <is>
+          <t>8 pages, 2 figures</t>
+        </is>
+      </c>
+      <c r="J114" t="inlineStr">
+        <is>
+          <t>Phys. Rev. A 112, 032403 (2025)</t>
+        </is>
+      </c>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t>quant-ph</t>
+        </is>
+      </c>
+      <c r="L114" t="inlineStr">
+        <is>
+          <t>quant-ph</t>
+        </is>
+      </c>
+      <c r="M114" t="inlineStr">
+        <is>
+          <t>http://arxiv.org/abs/2509.03856v1</t>
+        </is>
+      </c>
+      <c r="N114" t="inlineStr">
+        <is>
+          <t>http://arxiv.org/pdf/2509.03856v1</t>
+        </is>
+      </c>
+      <c r="O114" t="inlineStr">
+        <is>
+          <t>Geometric quantum computation offers robustness against control errors by leveraging evolution paths.
+This approach, combined with dynamical decoupling, provides enhanced decoherence mitigation without logical qubit encoding.
+The proposed scheme utilizes a general qubit-environment interaction for realistic and effective decoherence suppression.</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>http://arxiv.org/abs/2509.01442v1</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>2025-09-01T12:56:57Z</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>2025-09-01T12:56:57Z</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>Quantum Brush: A quantum computing-based tool for digital painting</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>We present Quantum Brush, an open-source digital painting tool that harnesses quantum computing to generate novel artistic expressions. The tool includes four different brushes that translate strokes into unique quantum algorithms, each highlighting a different way in which quantum effects can produce novel aesthetics. Each brush is designed to be compatible with the current noisy intermediate-scale quantum (NISQ) devices, as demonstrated by executing them on IQM's Sirius device.</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>João S. Ferreira, Arianna Crippa, Astryd Park, Daniel Bultrini, Pierre Fromholz, Roman Lipski, Karl Jansen, James R. Wootton</t>
+        </is>
+      </c>
+      <c r="G115" t="inlineStr"/>
+      <c r="H115" t="inlineStr"/>
+      <c r="I115" t="inlineStr"/>
+      <c r="J115" t="inlineStr"/>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>cs.GR</t>
+        </is>
+      </c>
+      <c r="L115" t="inlineStr">
+        <is>
+          <t>cs.GR, cs.ET, cs.MM, physics.soc-ph, quant-ph</t>
+        </is>
+      </c>
+      <c r="M115" t="inlineStr">
+        <is>
+          <t>http://arxiv.org/abs/2509.01442v1</t>
+        </is>
+      </c>
+      <c r="N115" t="inlineStr">
+        <is>
+          <t>http://arxiv.org/pdf/2509.01442v1</t>
+        </is>
+      </c>
+      <c r="O115" t="inlineStr">
+        <is>
+          <t>Quantum Brush is an open-source digital painting tool utilizing quantum algorithms for artistic creation. 
+It employs four brushes translating strokes into unique quantum computations. 
+The tool is designed for execution on existing NISQ devices, like IQM's Sirius.</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>http://arxiv.org/abs/2509.01648v1</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>2025-09-01T17:48:21Z</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>2025-09-01T17:48:21Z</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>Quantum Computation of the Electronic Structure of Some Prototype Solids</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>Over the last decade, researchers have been working to improve a crucial aspect of quantum computing to predict Hamiltonian energy of solids. Quantum algorithms such as Variational Quantum Eigensolver (VQE) and Variational Quantum Deflation (VQD) have been used to study the molecular systems. However, there is growing interest in adapting and applying these methods to periodic solid-state materials. In this work, we have integrated first-principles density functional theory with VQE and VQD algorithms and utilizing the Wannier Tight-Binding Hamiltonian (WTBH) method to predict the electronic characteristics of solids. We demonstrate that VQE and VQD algorithms can be used to accurately predict electronic characteristics in a variety of multi-component prototype solid-state materials such as-Silicon (semiconductor), Gold (metallic), Boron Nitrile (insulator), Graphene (semi-metal). Efficient SU2 performs well among all the predefined ansatz used in the study. COBYLA is the fastest optimizer among the classical optimizers with minimum number of iterations for convergence. Results of noise models help to understand the band structure when calculated on real quantum hardware. As quantum hardware advances, our method stands as a prototype for future quantum simulations of materials pushing us closer to autonomous quantum discovery engines.</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>Naman Khandelwal, Nidhi Verma, Pooja Jamdagni, Ashok Kumar</t>
+        </is>
+      </c>
+      <c r="G116" t="inlineStr"/>
+      <c r="H116" t="inlineStr"/>
+      <c r="I116" t="inlineStr">
+        <is>
+          <t>26 pages, 6 figures</t>
+        </is>
+      </c>
+      <c r="J116" t="inlineStr"/>
+      <c r="K116" t="inlineStr">
+        <is>
+          <t>cond-mat.mtrl-sci</t>
+        </is>
+      </c>
+      <c r="L116" t="inlineStr">
+        <is>
+          <t>cond-mat.mtrl-sci</t>
+        </is>
+      </c>
+      <c r="M116" t="inlineStr">
+        <is>
+          <t>http://arxiv.org/abs/2509.01648v1</t>
+        </is>
+      </c>
+      <c r="N116" t="inlineStr">
+        <is>
+          <t>http://arxiv.org/pdf/2509.01648v1</t>
+        </is>
+      </c>
+      <c r="O116" t="inlineStr">
+        <is>
+          <t>The study integrates VQE and VQD with first-principles DFT and the WTBH method for predicting solid-state electronic characteristics.
+It demonstrates accurate predictions for diverse materials like Silicon, Gold, and Boron Nitride using optimized ansatz and optimizers.
+The research provides a prototype for future quantum materials simulations, incorporating noise models for realistic hardware applications.</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>http://arxiv.org/abs/2509.03078v1</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>2025-09-03T07:13:52Z</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>2025-09-03T07:13:52Z</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>Quantum Computer Benchmarking: An Explorative Systematic Literature   Review</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>As quantum computing (QC) continues to evolve in hardware and software, measuring progress in this complex and diverse field remains a challenge. To track progress, uncover bottlenecks, and evaluate community efforts, benchmarks play a crucial role. But which benchmarking approach best addresses the diverse perspectives of QC stakeholders? We conducted the most comprehensive systematic literature review of this area to date, combining NLP-based clustering with expert analysis to develop a novel taxonomy and definitions for QC benchmarking, aligned with the quantum stack and its stakeholders. In addition to organizing benchmarks in distinct hardware, software, and application focused categories, our taxonomy hierarchically classifies benchmarking protocols in clearly defined subcategories. We develop standard terminology and map the interdependencies of benchmark categories to create a holistic, unified picture of the quantum benchmarking landscape. Our analysis reveals recurring design patterns, exposes research gaps, and clarifies how benchmarking methods serve different stakeholders. By structuring the field and providing a common language, our work offers a foundation for coherent benchmark development, fairer evaluation, and stronger cross-disciplinary collaboration in QC.</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>Tobias Rohe, Federico Harjes Ruiloba, Sabrina Egger, Sebastian von Beck, Jonas Stein, Claudia Linnhoff-Popien</t>
+        </is>
+      </c>
+      <c r="G117" t="inlineStr"/>
+      <c r="H117" t="inlineStr"/>
+      <c r="I117" t="inlineStr">
+        <is>
+          <t>79 pages, 5 figures</t>
+        </is>
+      </c>
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="inlineStr">
+        <is>
+          <t>quant-ph</t>
+        </is>
+      </c>
+      <c r="L117" t="inlineStr">
+        <is>
+          <t>quant-ph</t>
+        </is>
+      </c>
+      <c r="M117" t="inlineStr">
+        <is>
+          <t>http://arxiv.org/abs/2509.03078v1</t>
+        </is>
+      </c>
+      <c r="N117" t="inlineStr">
+        <is>
+          <t>http://arxiv.org/pdf/2509.03078v1</t>
+        </is>
+      </c>
+      <c r="O117" t="inlineStr">
+        <is>
+          <t>A systematic literature review created a novel taxonomy for quantum computing benchmarks. 
+This taxonomy categorizes benchmarks by hardware, software, and application, incorporating expert analysis and NLP clustering. 
+The resulting framework clarifies benchmark interdependencies, identifies research gaps, and promotes standardized terminology for QC evaluation.</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>http://arxiv.org/abs/2509.04057v1</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>2025-09-04T09:41:02Z</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>2025-09-04T09:41:02Z</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>Quantum Zeno effect versus adiabatic quantum computing and quantum   annealing</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>For the adiabatic version of Grover's quantum search algorithm as proposed by Roland and Cerf, we study the impact of decoherence caused by a rather general coupling to some environment. For quite generic conditions, we find that the quantum Zeno effect poses strong limitations on the performance (quantum speed-up) since the environment effectively measures the state of the system permanently and thereby inhibits or slows down quantum transitions. Generalizing our results, we find that analogous restrictions should apply universally to adiabatic quantum algorithms and quantum annealing schemes which are based on isolated Landau-Zener type transitions at avoided level crossings (similar to first-order phase transitions). As a possible resort, more gradual changes of the quantum state (as in second-order phase transitions) or suitable error-correcting schemes such as the spin-echo method may alleviate this problem.</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>Naser Ahmadiniaz, Dennis Kraft, Gernot Schaller, Ralf Schützhold</t>
+        </is>
+      </c>
+      <c r="G118" t="inlineStr"/>
+      <c r="H118" t="inlineStr"/>
+      <c r="I118" t="inlineStr">
+        <is>
+          <t>8+2+3 pages, 1 figure</t>
+        </is>
+      </c>
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t>quant-ph</t>
+        </is>
+      </c>
+      <c r="L118" t="inlineStr">
+        <is>
+          <t>quant-ph</t>
+        </is>
+      </c>
+      <c r="M118" t="inlineStr">
+        <is>
+          <t>http://arxiv.org/abs/2509.04057v1</t>
+        </is>
+      </c>
+      <c r="N118" t="inlineStr">
+        <is>
+          <t>http://arxiv.org/pdf/2509.04057v1</t>
+        </is>
+      </c>
+      <c r="O118" t="inlineStr">
+        <is>
+          <t>Decoherence significantly limits the performance of Grover's algorithm due to the quantum Zeno effect.  This broadly applies to adiabatic quantum algorithms relying on Landau-Zener transitions.  Gradual state changes or error correction techniques could potentially mitigate these limitations.</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>http://arxiv.org/abs/2509.04327v1</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>2025-09-04T15:44:51Z</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>2025-09-04T15:44:51Z</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>DGLAP-BFKL duality from QCD to quantum computers</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>DGLAP integro-differential equation can be solved by applying certain map in the complex plane of Mellin moments. It may be re-written as Schr\"odinger equation for $n$ particles. By applying another map in the complex plane of Mellin moment we may re-write the DGLAP equation as a dual DGLAP equation. Regge limit of the dual DGLAP equation coincides with BFKL integro-differential equation which in turn is the Regge limit of optic theorem in quantum field theory and may be re-written as another Schr\"odinger equation. This means that the BFKL equation and the corresponding Schr\"odinger equation may be solved by the proposed method of complex mapping in the complex plane of Mellin moments. This approach may be useful in solving tasks related to quantum communication processes.</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>Igor Kondrashuk</t>
+        </is>
+      </c>
+      <c r="G119" t="inlineStr"/>
+      <c r="H119" t="inlineStr"/>
+      <c r="I119" t="inlineStr">
+        <is>
+          <t>6 pages, Talk at QC-Horizon 2025, University of West Bohemia, Pilsen,
+  Czech Republic</t>
+        </is>
+      </c>
+      <c r="J119" t="inlineStr"/>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t>quant-ph</t>
+        </is>
+      </c>
+      <c r="L119" t="inlineStr">
+        <is>
+          <t>quant-ph, math-ph, math.MP, 44A15, 44A20, 81T13, 30E20, 81T60, 44A60, 44A20, 33B15, 44A10,
+  45K05, 81Q40, 46N50, H.1.1</t>
+        </is>
+      </c>
+      <c r="M119" t="inlineStr">
+        <is>
+          <t>http://arxiv.org/abs/2509.04327v1</t>
+        </is>
+      </c>
+      <c r="N119" t="inlineStr">
+        <is>
+          <t>http://arxiv.org/pdf/2509.04327v1</t>
+        </is>
+      </c>
+      <c r="O119" t="inlineStr">
+        <is>
+          <t>The DGLAP equation can be transformed into a Schr\"odinger equation using complex mapping of Mellin moments. This transformation leads to a dual DGLAP equation mirroring the BFKL equation and its associated Schr\"odinger equation. Consequently, the complex mapping method offers a potential solution approach for problems in quantum communication.</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>http://arxiv.org/abs/2509.04401v1</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>2025-09-04T17:12:19Z</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>2025-09-04T17:12:19Z</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>Monte Carlo simulation of random circuit sampling in quantum computing</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>We develop Monte Carlo methods for sampling random states and corresponding bit strings in qubit systems. To this end, we derive exact probability density functions that yield the Porter-Thomas distribution in the limit of large systems. We apply these functions in importance sampling algorithms and demonstrate efficiency for qubit systems with 70, 105, 1000, and more than one million ($2^{20}$) qubits. In particular, we simulate the output of recent quantum computations without noise on a PC with minimal computational cost. I would therefore argue that random circuit sampling can be conveniently performed on classical computers.</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>Andreas Raab</t>
+        </is>
+      </c>
+      <c r="G120" t="inlineStr"/>
+      <c r="H120" t="inlineStr"/>
+      <c r="I120" t="inlineStr"/>
+      <c r="J120" t="inlineStr"/>
+      <c r="K120" t="inlineStr">
+        <is>
+          <t>quant-ph</t>
+        </is>
+      </c>
+      <c r="L120" t="inlineStr">
+        <is>
+          <t>quant-ph, math-ph, math.MP, I.6.3; J.2</t>
+        </is>
+      </c>
+      <c r="M120" t="inlineStr">
+        <is>
+          <t>http://arxiv.org/abs/2509.04401v1</t>
+        </is>
+      </c>
+      <c r="N120" t="inlineStr">
+        <is>
+          <t>http://arxiv.org/pdf/2509.04401v1</t>
+        </is>
+      </c>
+      <c r="O120" t="inlineStr">
+        <is>
+          <t>Exact probability density functions based on Monte Carlo methods generate bit strings for qubit systems. These functions are applied in importance sampling algorithms, achieving efficiency across various qubit scales. Classical computers can effectively simulate quantum computations with minimal cost.</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>http://arxiv.org/abs/2509.06455v1</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>2025-09-08T09:00:09Z</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>2025-09-08T09:00:09Z</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>Theoretical and experimental analysis of adaptive quantum computers</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>Fault-tolerant quantum computations require alternating quantum and classical computations, where the classical computations prove vital in detecting and correcting errors in the quantum computation. Recently, interest in using these classical computations has been growing again, not to correct errors, but to perform computations. Various works have looked into these so-called adaptive quantum algorithms. Few works however have looked in the advantages of adaptive quantum algorithms in realistic scenarios. This work provides the first step in this direction. We introduce a worst-case noise model and use it to derive success probabilities for preparing a GHZ state and preparing a $W$-state using either an adaptive quantum algorithm, or using a standard non-adaptive quantum algorithm. Next, we implemented these protocols on quantum hardware and we compare the outcomes to our derived theoretical results. We find that despite their potential, adaptive quantum algorithms currently do not outperform full quantum algorithms.</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>Niels M. P. Neumann</t>
+        </is>
+      </c>
+      <c r="G121" t="inlineStr"/>
+      <c r="H121" t="inlineStr"/>
+      <c r="I121" t="inlineStr"/>
+      <c r="J121" t="inlineStr"/>
+      <c r="K121" t="inlineStr">
+        <is>
+          <t>quant-ph</t>
+        </is>
+      </c>
+      <c r="L121" t="inlineStr">
+        <is>
+          <t>quant-ph</t>
+        </is>
+      </c>
+      <c r="M121" t="inlineStr">
+        <is>
+          <t>http://arxiv.org/abs/2509.06455v1</t>
+        </is>
+      </c>
+      <c r="N121" t="inlineStr">
+        <is>
+          <t>http://arxiv.org/pdf/2509.06455v1</t>
+        </is>
+      </c>
+      <c r="O121" t="inlineStr">
+        <is>
+          <t>Adaptive quantum algorithms were investigated for computation alongside quantum processes.
+Theoretical success probabilities were calculated using a noise model for GHZ and W-state preparation.
+Experimental results on quantum hardware showed no significant advantage over standard quantum algorithms.</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>http://arxiv.org/abs/2509.07773v1</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>2025-09-09T14:06:24Z</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>2025-09-09T14:06:24Z</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>Quantum Computing for Large-scale Network Optimization: Opportunities   and Challenges</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>The complexity of large-scale 6G-and-beyond networks demands innovative approaches for multi-objective optimization over vast search spaces, a task often intractable. Quantum computing (QC) emerges as a promising technology for efficient large-scale optimization. We present our vision of leveraging QC to tackle key classes of problems in future mobile networks. By analyzing and identifying common features, particularly their graph-centric representation, we propose a unified strategy involving QC algorithms. Specifically, we outline a methodology for optimization using quantum annealing as well as quantum reinforcement learning. Additionally, we discuss the main challenges that QC algorithms and hardware must overcome to effectively optimize future networks.</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>Sebastian Macaluso, Giovanni Geraci, Elías F. Combarro, Sergi Abadal, Ioannis Arapakis, Sofia Vallecorsa, Eduard Alarcón</t>
+        </is>
+      </c>
+      <c r="G122" t="inlineStr"/>
+      <c r="H122" t="inlineStr"/>
+      <c r="I122" t="inlineStr">
+        <is>
+          <t>7 pages, 4 figures</t>
+        </is>
+      </c>
+      <c r="J122" t="inlineStr"/>
+      <c r="K122" t="inlineStr">
+        <is>
+          <t>cs.NI</t>
+        </is>
+      </c>
+      <c r="L122" t="inlineStr">
+        <is>
+          <t>cs.NI, cs.IT, cs.LG, eess.SP, math.IT, quant-ph</t>
+        </is>
+      </c>
+      <c r="M122" t="inlineStr">
+        <is>
+          <t>http://arxiv.org/abs/2509.07773v1</t>
+        </is>
+      </c>
+      <c r="N122" t="inlineStr">
+        <is>
+          <t>http://arxiv.org/pdf/2509.07773v1</t>
+        </is>
+      </c>
+      <c r="O122" t="inlineStr">
+        <is>
+          <t>Quantum computing offers potential solutions for complex optimization challenges in 6G and beyond networks. 
+A unified strategy utilizing quantum annealing and reinforcement learning is proposed based on graph-centric representations. 
+Significant hardware and algorithm advancements are needed for successful implementation in future network optimization.</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>http://arxiv.org/abs/2508.20720v1</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>2025-08-28T12:43:49Z</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>2025-08-28T12:43:49Z</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>Accelerating the drive towards energy-efficient generative AI with   quantum computing algorithms</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>Research and usage of artificial intelligence, particularly generative and large language models, have rapidly progressed over the last years. This has, however, given rise to issues due to high energy consumption. While quantum computing is not (yet) mainstream, its intersection with machine learning is especially promising, and the technology could alleviate some of these energy challenges. In this perspective article, we break down the lifecycle stages of large language models and discuss relevant enhancements based on quantum algorithms that may aid energy efficiency and sustainability, including industry application examples and open research problems.</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>Frederik F. Flöther, Jan Mikolon, Maria Longobardi</t>
+        </is>
+      </c>
+      <c r="G123" t="inlineStr"/>
+      <c r="H123" t="inlineStr"/>
+      <c r="I123" t="inlineStr"/>
+      <c r="J123" t="inlineStr"/>
+      <c r="K123" t="inlineStr">
+        <is>
+          <t>quant-ph</t>
+        </is>
+      </c>
+      <c r="L123" t="inlineStr">
+        <is>
+          <t>quant-ph</t>
+        </is>
+      </c>
+      <c r="M123" t="inlineStr">
+        <is>
+          <t>http://arxiv.org/abs/2508.20720v1</t>
+        </is>
+      </c>
+      <c r="N123" t="inlineStr">
+        <is>
+          <t>http://arxiv.org/pdf/2508.20720v1</t>
+        </is>
+      </c>
+      <c r="O123" t="inlineStr">
+        <is>
+          <t>Quantum computing offers potential solutions to the energy consumption issues of large language models. 
+The article analyzes the energy lifecycle of LLMs and proposes quantum algorithm enhancements. 
+It explores industry applications and identifies key research areas for sustainable AI development.</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>http://arxiv.org/abs/2508.21504v1</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>2025-08-29T10:37:19Z</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>2025-08-29T10:37:19Z</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>Digital quantum simulation of many-body systems: Making the most of   intermediate-scale, noisy quantum computers</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>Quantum mechanical problems are among the hardest to simulate and, in some cases, remain intractable even for the most powerful computers. Quantum computing has emerged as a new technological platform to address such challenges, with rapid advances in recent years. Yet, current quantum devices remain noisy and limited in scale. Hence, it is essential to identify classically hard problems of practical interest and tractable with existing quantum devices. Among potential applications, the real-time simulation of quantum systems is one of the most promising to deliver an early, practical quantum advantage. This doctoral thesis is therefore centered around simulating quantum dynamics on quantum devices. We first present an overview of the most relevant quantum algorithms for quantum dynamics, highlighting respective advantages and limitations. Further, we identify relevant problems within quantum dynamics that could benefit from quantum simulation in the near future. Second, we propose a method for benchmarking hardware and error mitigation algorithms that is based on well-understood theoretical results and suffers from no scaling issues. The resulting quality metric is intuitive and transferable to other applications. We successfully implement the scheme on up to 133 qubits, demonstrating coherent evolution up to a two-qubit gate depth of 28, featuring 1396 two-qubit gates, before noise becomes prevalent. Third, we propose a novel variant of probabilistic error amplification to implement open quantum dynamics, relying on characterizing and altering hardware noise to mimic the system-environment interaction under study. Lastly, we present two studies on state preparation and phase classification: first, a hybrid algorithm to prepare ground states of electron-phonon systems; second, a quantum machine learning-based approach to distinguish phases in previously prepared quantum states.</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>Alexander Miessen</t>
+        </is>
+      </c>
+      <c r="G124" t="inlineStr"/>
+      <c r="H124" t="inlineStr"/>
+      <c r="I124" t="inlineStr">
+        <is>
+          <t>Doctoral thesis</t>
+        </is>
+      </c>
+      <c r="J124" t="inlineStr"/>
+      <c r="K124" t="inlineStr">
+        <is>
+          <t>quant-ph</t>
+        </is>
+      </c>
+      <c r="L124" t="inlineStr">
+        <is>
+          <t>quant-ph</t>
+        </is>
+      </c>
+      <c r="M124" t="inlineStr">
+        <is>
+          <t>http://arxiv.org/abs/2508.21504v1</t>
+        </is>
+      </c>
+      <c r="N124" t="inlineStr">
+        <is>
+          <t>http://arxiv.org/pdf/2508.21504v1</t>
+        </is>
+      </c>
+      <c r="O124" t="inlineStr">
+        <is>
+          <t>This thesis explores simulating quantum dynamics on existing quantum devices.
+It introduces a scalable benchmarking method and novel error mitigation techniques for improved coherence.
+Finally, it proposes algorithms for state preparation and phase classification, demonstrating practical implementation with 133 qubits.</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>http://arxiv.org/abs/2509.01482v1</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>2025-09-01T13:56:06Z</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>2025-09-01T13:56:06Z</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>Enhanced measurements on quantum computers via the simultaneous probing   of non-commuting Pauli operators</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>Measuring the state of quantum computers is a highly non-trivial task, with implications for virtually all quantum algorithms. We propose a novel scheme where identical copies of a quantum state are measured jointly so that all Pauli operators within the considered observable can be simultaneously assessed. We use Bayesian statistics to accurately estimate the average and error, and develop an adaptive shot-allocation algorithm that preferentially samples the most uncertain Pauli terms. In regimes with many non-commuting Pauli operators, our ``double'' scheme can outperform the state-of-the-art measurement protocol in minimizing total shots for a given precision.</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>Rick P. A. Simon, Zheng Shi, Charlie Nation, Andrew Jena, Luca Dellantonio</t>
+        </is>
+      </c>
+      <c r="G125" t="inlineStr"/>
+      <c r="H125" t="inlineStr"/>
+      <c r="I125" t="inlineStr">
+        <is>
+          <t>6 pages main text, 2 pages supplemental information, 2 figures.
+  Comments are welcome :)</t>
+        </is>
+      </c>
+      <c r="J125" t="inlineStr"/>
+      <c r="K125" t="inlineStr">
+        <is>
+          <t>quant-ph</t>
+        </is>
+      </c>
+      <c r="L125" t="inlineStr">
+        <is>
+          <t>quant-ph</t>
+        </is>
+      </c>
+      <c r="M125" t="inlineStr">
+        <is>
+          <t>http://arxiv.org/abs/2509.01482v1</t>
+        </is>
+      </c>
+      <c r="N125" t="inlineStr">
+        <is>
+          <t>http://arxiv.org/pdf/2509.01482v1</t>
+        </is>
+      </c>
+      <c r="O125" t="inlineStr">
+        <is>
+          <t>Joint measurement of identical quantum states using Pauli operators provides simultaneous observable assessment. 
+Bayesian statistics are utilized for precise error and average estimation. 
+An adaptive algorithm optimizes shot allocation, exceeding existing protocols in complex scenarios.</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>http://arxiv.org/abs/2509.02683v1</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>2025-09-02T18:00:03Z</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>2025-09-02T18:00:03Z</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>Improving Hardware Requirements for Fault-Tolerant Quantum Computing by   Optimizing Error Budget Distributions</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>Despite significant progress in quantum computing in recent years, executing quantum circuits for practical problems remains challenging due to error-prone quantum hardware. Hence, quantum error correction becomes essential but induces significant overheads in qubits and execution time, often by orders of magnitude. Obviously, these overheads must be reduced. Since many quantum applications can tolerate some noise, end users can provide a maximum tolerated error, the error budget, to be considered during compilation and execution. This error budget, or, more precisely, its distribution, can be a key factor in achieving the overhead reduction. Conceptually, an error-corrected quantum circuit can be divided into different parts that each have a specific purpose. Errors can happen in any of these parts and their errors sum up to the mentioned error budget, but how to distribute it among them actually constitutes a degree of freedom. This work is based on the idea that some of the circuit parts can compensate for errors more efficiently than others. Consequently, these parts should contribute more to satisfy the total error budget than the parts where it is more costly. However, this poses the challenge of finding optimal distributions. We address this challenge not only by providing general guidelines on distributing the error budget, but also a method that automatically determines resource-efficient distributions for arbitrary circuits by training a machine learning model on an accumulated dataset. The approach is evaluated by analyzing the machine learning model's predictions on so far unseen data, reducing the estimated space-time costs for more than 75% of the considered quantum circuits, with an average reduction of 15.6%, including cases without improvement, and a maximum reduction of 77.7%.</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>Tobias Forster, Nils Quetschlich, Mathias Soeken, Robert Wille</t>
+        </is>
+      </c>
+      <c r="G126" t="inlineStr"/>
+      <c r="H126" t="inlineStr"/>
+      <c r="I126" t="inlineStr"/>
+      <c r="J126" t="inlineStr"/>
+      <c r="K126" t="inlineStr">
+        <is>
+          <t>quant-ph</t>
+        </is>
+      </c>
+      <c r="L126" t="inlineStr">
+        <is>
+          <t>quant-ph</t>
+        </is>
+      </c>
+      <c r="M126" t="inlineStr">
+        <is>
+          <t>http://arxiv.org/abs/2509.02683v1</t>
+        </is>
+      </c>
+      <c r="N126" t="inlineStr">
+        <is>
+          <t>http://arxiv.org/pdf/2509.02683v1</t>
+        </is>
+      </c>
+      <c r="O126" t="inlineStr">
+        <is>
+          <t>Quantum error correction’s overheads necessitate managing error budgets effectively.
+A machine learning model optimizes error budget distribution across quantum circuit components.
+This approach achieves significant cost reductions – up to 77.7% – by learning efficient error compensation strategies.</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>http://arxiv.org/abs/2509.03864v1</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>2025-09-04T03:49:39Z</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>2025-09-04T03:49:39Z</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>Near-Term Quantum-Computing-Inspired Sampling for Community Detection in   Low-Modularity Graphs</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>Low modularity networks (Q &lt; 0.2) challenge classical community detection algorithms, which get trapped in local optima. We introduce quantum inspired community detection algorithms leveraging non classical sampling techniques to escape modularity optimization plateaus. Using distributions inspired by quantum phenomena including Porter Thomas distributions, Haar random states, and hyperuniform point processes, our approach generates diverse high quality partitions that improve modularity on difficult low Q graphs. We demonstrate 15 to 25% gains in modularity Q over classical methods (Louvain, Leiden). We define a "Modularity Recovery Gap" (MRG), the increase in Q achieved by quantum inspired refinement, and show this serves as a powerful anomaly detection signal. In experiments on high modularity networks (CTU 13 botnet traffic), MRG is near zero, confirming our method doesn't inflate modularity when no hidden structure exists. Results suggest quantum inspired sampling substantially enhances community detection in low modularity regimes, with applications in cybersecurity (stealthy APT/botnet detection), financial contagion modeling, disrupted supply chains, diseased brain connectomes, and crisis era social media analysis. Our refinements expand the search space of algorithms like Leiden without altering the graph, revealing partitions classical heuristics miss. While such partitions need not represent ground truth communities, they illustrate how near term quantum sampling can reshape optimization landscapes and enhance sensitivity to weak structure.</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>Joseph Geraci, Luca Pani</t>
+        </is>
+      </c>
+      <c r="G127" t="inlineStr"/>
+      <c r="H127" t="inlineStr"/>
+      <c r="I127" t="inlineStr">
+        <is>
+          <t>10 pages, 1 image, 3 tables</t>
+        </is>
+      </c>
+      <c r="J127" t="inlineStr"/>
+      <c r="K127" t="inlineStr">
+        <is>
+          <t>quant-ph</t>
+        </is>
+      </c>
+      <c r="L127" t="inlineStr">
+        <is>
+          <t>quant-ph</t>
+        </is>
+      </c>
+      <c r="M127" t="inlineStr">
+        <is>
+          <t>http://arxiv.org/abs/2509.03864v1</t>
+        </is>
+      </c>
+      <c r="N127" t="inlineStr">
+        <is>
+          <t>http://arxiv.org/pdf/2509.03864v1</t>
+        </is>
+      </c>
+      <c r="O127" t="inlineStr">
+        <is>
+          <t>Quantum-inspired sampling techniques improve community detection in low-modularity networks by escaping local optima.
+The method generates higher-modularity partitions compared to classical algorithms, quantified by a “Modularity Recovery Gap.”
+This approach demonstrates enhanced sensitivity to weak structure, with applications in anomaly detection and complex network analysis.</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>http://arxiv.org/abs/2509.03954v1</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>2025-09-04T07:29:21Z</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>2025-09-04T07:29:21Z</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>LATTE: A Decoding Architecture for Quantum Computing with Temporal and   Spatial Scalability</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>Quantum error correction allows inherently noisy quantum devices to emulate an ideal quantum computer with reasonable resource overhead. As a crucial component, decoding architectures have received significant attention recently. In this paper, we introduce LATTE, a FPGA-CPU hybrid decoding architecture aiming to address the key requirements of scaling up in lattice surgery quantum computation -- Latency, Accuracy, Throughput and Transmission Bandwidth, in an Eclectic manner. LATTE follows a hierarchical design: (1) A fully streaming and asynchronous block decoding system on CPU to enable parallelization both temporally and spatially. (2) A super-light yet accurate neural local decoding unit integrated with quantum control hardware on FPGA, which remains \emph{transparent} to the block decoding system, effectively reducing transmission bandwidth and accelerating the decoding process. LATTE delivers accuracy on par with the base decoder while achieving real-time decoding throughput and significantly reducing both bandwidth requirements and computational resources, enabling a level of scalability far beyond previous approaches. Under circuit-level noise $p=0.001$, LATTE achieves over $\mathbf{90\%}$ reduction in transmission bandwidth and a $\mathbf{6.4\times}$ speedup on average in single-block decoding. In the \emph{streaming decoding} scenario: (1) LATTE achieves constant and low latency ($\mathbf{16\times}$-$\mathbf{20\times}$ speedup over existing streaming decoding implementations) in arbitrarily long quantum memory experiments, with near-optimal resources -- merely $\mathbf{2}$ threads are sufficient for decoding the surface code with distance up to $17$. (2) LATTE minimizes latency in multi-patch measurement experiments through highly parallelized decoding operations. These combined efforts ensure sufficient scalability for large-scale fault-tolerant quantum computing.</t>
+        </is>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>Kai Zhang, Jubo Xu, Fang Zhang, Linghang Kong, Zhengfeng Ji, Jianxin Chen</t>
+        </is>
+      </c>
+      <c r="G128" t="inlineStr"/>
+      <c r="H128" t="inlineStr"/>
+      <c r="I128" t="inlineStr">
+        <is>
+          <t>13 pages, 10 figures</t>
+        </is>
+      </c>
+      <c r="J128" t="inlineStr"/>
+      <c r="K128" t="inlineStr">
+        <is>
+          <t>quant-ph</t>
+        </is>
+      </c>
+      <c r="L128" t="inlineStr">
+        <is>
+          <t>quant-ph</t>
+        </is>
+      </c>
+      <c r="M128" t="inlineStr">
+        <is>
+          <t>http://arxiv.org/abs/2509.03954v1</t>
+        </is>
+      </c>
+      <c r="N128" t="inlineStr">
+        <is>
+          <t>http://arxiv.org/pdf/2509.03954v1</t>
+        </is>
+      </c>
+      <c r="O128" t="inlineStr">
+        <is>
+          <t>LATTE is a FPGA-CPU hybrid architecture designed for efficient quantum error correction decoding. 
+It utilizes a parallel CPU system alongside a lightweight FPGA unit to minimize bandwidth and accelerate single-block decoding. 
+The architecture achieves significant speedups and bandwidth reductions, enabling scalable quantum computing for long experiments and multi-patch measurements.</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>http://arxiv.org/abs/2509.04029v1</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>2025-09-04T09:04:54Z</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>2025-09-04T09:04:54Z</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>A Framework for Quantum Data Center Emulation Using Digital Quantum   Computers</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>As quantum computing hardware advances, the limitations of single-chip architectures, particularly in terms of small qubit count, have sparked growing interest in modular quantum computing systems and Quantum Data Centers (QDCs). These architectures interconnect multiple quantum processor units (QPUs) to overcome physical constraints and support complex quantum algorithms. However, the implementation of distributed quantum computing (DQC) faces significant technical challenges, especially in the execution of remote gates. Moreover, no practical emulation tool currently exists to evaluate theoretical proposals of various DQC systems. In this work, we propose a framework that emulates a DQC system using a single quantum processor. We partition the physical qubit coupling map of an existing QPU into multiple logical QPUs, and introduce an experimentally grounded noise model based on quantum collision dynamics to quantify the interconnect-induced noise, representing fiber-connected QPUs. The framework is validated using IBM's quantum hardware, demonstrating the successful execution of remote gates under noisy conditions. Furthermore, we implement distributed versions of Grover's search and the Quantum Fourier Transform (QFT), showing that complex circuits can be executed within the proposed framework with reasonable fidelity across interconnected QPUs. The emulation result of Grover's algorithm aligns with the real-world experimental implementations between two Ion-trapped QPUs interconnected by optical fiber, which demonstrate the feasibility and accuracy of our framework. Overall, this work provides a versatile emulation tool for investigating QDC behavior while accounting for interconnect-induced communication noise and offers a practical method for validating distributed quantum protocols without requiring specialized interconnect hardware.</t>
+        </is>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>Seyed Navid Elyasi, Seyed Morteza Ahmadian, Paolo Monti, Jun Li, Rui Lin</t>
+        </is>
+      </c>
+      <c r="G129" t="inlineStr"/>
+      <c r="H129" t="inlineStr"/>
+      <c r="I129" t="inlineStr"/>
+      <c r="J129" t="inlineStr"/>
+      <c r="K129" t="inlineStr">
+        <is>
+          <t>quant-ph</t>
+        </is>
+      </c>
+      <c r="L129" t="inlineStr">
+        <is>
+          <t>quant-ph</t>
+        </is>
+      </c>
+      <c r="M129" t="inlineStr">
+        <is>
+          <t>http://arxiv.org/abs/2509.04029v1</t>
+        </is>
+      </c>
+      <c r="N129" t="inlineStr">
+        <is>
+          <t>http://arxiv.org/pdf/2509.04029v1</t>
+        </is>
+      </c>
+      <c r="O129" t="inlineStr">
+        <is>
+          <t>A new framework emulates distributed quantum computing systems using a single quantum processor. 
+It incorporates a noise model based on quantum collision dynamics to simulate interconnect-induced noise. 
+The framework successfully executes remote gates and demonstrates the feasibility of distributed algorithms like Grover's and QFT.</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>http://arxiv.org/abs/2509.05206v1</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>2025-09-05T16:10:15Z</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>2025-09-05T16:10:15Z</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>Adiabatic preparation of thermal states and entropy-noise relation on   noisy quantum computers</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>We consider the problem of preparing thermal equilibrium states at finite temperature on quantum computers. Assuming thermalization, we show that states that are locally at thermal equilibrium can be prepared by evolving adiabatically an initial thermal Gibbs state of a simple Hamiltonian with an interpolating time-dependent Hamiltonian, identically to adiabatic ground state preparation. We argue that the entropy density of local density matrices is conserved during the adiabatic evolution, so that both the entropy and energy of the final state can be computed, and thus the final temperature too. We show that in the presence of hardware noise, the entropy created by the noisy evolution can be evaluated with mirror circuits. We give numerical evidence that the resulting thermal state preparation protocol is noise-resilient, in the sense that the energy-temperature curve measured on a noisy quantum computer is remarkably insensitive to noise. We finally propose a protocol to estimate the lack of adiabaticity in a given actual Trotter implementation of the dynamics. We test our protocol on Quantinuum's H1-1 ion-trap device. We measure that a circuit with $640$ two-qubit gates implemented on hardware generates an entropy per site of $0.166 \pm 0.0045$, giving a benchmark metric for this state preparation. We report the preparation of a thermal state with temperature $2.56 \pm 0.26$ of the Ising model in size $5\times 4$.</t>
+        </is>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>Etienne Granet, Henrik Dreyer</t>
+        </is>
+      </c>
+      <c r="G130" t="inlineStr"/>
+      <c r="H130" t="inlineStr"/>
+      <c r="I130" t="inlineStr">
+        <is>
+          <t>13 pages</t>
+        </is>
+      </c>
+      <c r="J130" t="inlineStr"/>
+      <c r="K130" t="inlineStr">
+        <is>
+          <t>quant-ph</t>
+        </is>
+      </c>
+      <c r="L130" t="inlineStr">
+        <is>
+          <t>quant-ph</t>
+        </is>
+      </c>
+      <c r="M130" t="inlineStr">
+        <is>
+          <t>http://arxiv.org/abs/2509.05206v1</t>
+        </is>
+      </c>
+      <c r="N130" t="inlineStr">
+        <is>
+          <t>http://arxiv.org/pdf/2509.05206v1</t>
+        </is>
+      </c>
+      <c r="O130" t="inlineStr">
+        <is>
+          <t>Adiabatic state preparation of thermal equilibrium states can be achieved by evolving a Gibbs state with a time-dependent Hamiltonian.
+Noise in the implementation can be accounted for using mirror circuits to evaluate entropy.
+The resulting protocol demonstrates noise-resilient thermal state preparation, yielding a temperature of 2.56 ± 0.26 for a 5x4 Ising model.</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>http://arxiv.org/abs/2509.05404v1</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>2025-09-05T18:00:00Z</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>2025-09-05T18:00:00Z</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>Efficient Preparation of Resource States for Hamiltonian Simulation and   Universal Quantum Computation</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>The direct compilation of algorithm-specific graph states in measurement-based quantum computation (MBQC) can lead to resource reductions in terms of circuit depth, entangling gates, and even the number of physical qubits. In this work, we extend previous studies on algorithm-tailored graph states to periodic sequences of generalized Pauli rotations, which commonly appear in, e.g., Trotterized Hamiltonian simulation. We first implement an enhanced simulated-annealing-based algorithm to find optimal periodic graph states within local-Clifford (LC-)MBQC. In addition, we derive a novel scheme for the preparation of resource states based on a graph state and a ladder of CNOT gates, which we term anticommutation-based (AC-)MBQC, since it uncovers a direct relationship between the graph state and the anticommutation matrix for the set of Hamilonians generating the computation. We also deploy our two approaches to derive universal resource states from minimal universal sets of generating Hamiltonians, thus providing a straightforward algorithm for finding the former. Finally, we demonstrate and compare both of our methods based on various examples from condensed matter physics and universal quantum computation.</t>
+        </is>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>Thierry N. Kaldenbach, Isaac D. Smith, Hendrik Poulsen Nautrup, Matthias Heller, Hans J. Briegel</t>
+        </is>
+      </c>
+      <c r="G131" t="inlineStr"/>
+      <c r="H131" t="inlineStr"/>
+      <c r="I131" t="inlineStr">
+        <is>
+          <t>36 pages, 22 figures</t>
+        </is>
+      </c>
+      <c r="J131" t="inlineStr"/>
+      <c r="K131" t="inlineStr">
+        <is>
+          <t>quant-ph</t>
+        </is>
+      </c>
+      <c r="L131" t="inlineStr">
+        <is>
+          <t>quant-ph</t>
+        </is>
+      </c>
+      <c r="M131" t="inlineStr">
+        <is>
+          <t>http://arxiv.org/abs/2509.05404v1</t>
+        </is>
+      </c>
+      <c r="N131" t="inlineStr">
+        <is>
+          <t>http://arxiv.org/pdf/2509.05404v1</t>
+        </is>
+      </c>
+      <c r="O131" t="inlineStr">
+        <is>
+          <t>We developed methods for creating efficient graph states tailored to specific algorithms, reducing computational resources in MBQC. 
+These include an enhanced simulated-annealing algorithm and a new "anticommutation-based" (AC-)MBQC scheme.
+The work establishes a direct link between graph states and anticommutation matrices, enabling straightforward universal resource state generation.</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>http://arxiv.org/abs/2509.06205v1</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>2025-09-07T21:02:04Z</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>2025-09-07T21:02:04Z</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>Interfacing Quantum Computing Systems with High-Performance Computing   Systems: An Overview</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>The connection and eventual integration of High-Performance Computing (HPC) with Quantum Computing (QC) represents a transformative advancement in computational technology, promising significant enhancements in solving complex, previously intractable problems. This manuscript provides a comprehensive overview of the current state of HPC-QC interfacing, detailing architectural methodologies, software stack developments, middleware functionalities, and hardware integration strategies. It critically assesses existing hardware-level integration models, ranging from standalone and loosely-coupled architectures to tightly-integrated and on-node systems. The software ecosystem is analyzed, highlighting prominent frameworks such as Qiskit, PennyLane, CUDA-Q, and middleware solutions like Pilot-Quantum, essential for seamless hybrid computing environments. Furthermore, the manuscript discusses practical applications in optimization, machine learning, and many-body dynamics, where hybrid HPC-QC systems can offer substantial advantages. It also describes existing challenges, including hardware limitations (coherence, scalability, connectivity), software maturity, communication overhead, resource management complexities, and cost factors. Finally, future directions towards tighter hardware and software integration are discussed, emphasizing ongoing research developments and emerging trends that promise to expand the capabilities and accessibility of hybrid HPC-QC systems.</t>
+        </is>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>Konstantinos Rallis, Ioannis Liliopoulos, Georgios D. Varsamis, Evangelos Tsipas, Ioannis G. Karafyllidis, Georgios Ch. Sirakoulis, Panagiotis Dimitrakis</t>
+        </is>
+      </c>
+      <c r="G132" t="inlineStr"/>
+      <c r="H132" t="inlineStr"/>
+      <c r="I132" t="inlineStr">
+        <is>
+          <t>28 pages, 3 figures</t>
+        </is>
+      </c>
+      <c r="J132" t="inlineStr"/>
+      <c r="K132" t="inlineStr">
+        <is>
+          <t>quant-ph</t>
+        </is>
+      </c>
+      <c r="L132" t="inlineStr">
+        <is>
+          <t>quant-ph</t>
+        </is>
+      </c>
+      <c r="M132" t="inlineStr">
+        <is>
+          <t>http://arxiv.org/abs/2509.06205v1</t>
+        </is>
+      </c>
+      <c r="N132" t="inlineStr">
+        <is>
+          <t>http://arxiv.org/pdf/2509.06205v1</t>
+        </is>
+      </c>
+      <c r="O132" t="inlineStr">
+        <is>
+          <t>HPC-QC integration offers enhanced solutions for complex problems across optimization, machine learning, and dynamics.
+The manuscript examines current architectural models, software frameworks, and middleware for seamless hybrid computing.
+Challenges remain regarding hardware limitations, software maturity, and cost, while future research focuses on tighter integration and expanded capabilities.</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>http://arxiv.org/abs/2508.21321v1</t>
+        </is>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>2025-08-29T04:24:26Z</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>2025-08-29T04:24:26Z</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>Project-Based Learning in Introductory Quantum Computing Courses: A Case   Study on Quantum Algorithms for Medical Imaging</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>Quantum computing introduces abstract concepts and non-intuitive behaviors that can be challenging for students to grasp through traditional lecture-based instruction alone. This paper demonstrates how Project-Based Learning (PBL) can be leveraged to bridge that gap. This can be done by engaging students in a real-world, interdisciplinary task that combines quantum computing with their field of interest. As part of a similar assignment, we investigated the application of the Harrow-Hassidim-Lloyd (HHL) algorithm for computed tomography (CT) image reconstruction and benchmarked its performance against the classical Algebraic Reconstruction Technique (ART). Through implementing and analyzing both methods on a small-scale problem, we gained practical experience with quantum algorithms, critically evaluated their limitations, and developed technical writing and research skills. The experience demonstrated that Project-Based Learning not only enhances conceptual understanding but also encourages students to engage deeply with emerging technologies through research, implementation, and reflection. We recommend the integration of similar PBL modules in introductory quantum computing courses. The assignment also works better if students are required to write and submit a conference-style paper, supported by mentorship from faculty across the different fields. In such course interdisciplinary, real-world problems can transform abstract theory into meaningful learning experiences and better prepare students for future advancements in quantum technologies.</t>
+        </is>
+      </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>Nischal Binod Gautam, Keith Evan Schubert, Enrique P. Blair</t>
+        </is>
+      </c>
+      <c r="G133" t="inlineStr"/>
+      <c r="H133" t="inlineStr"/>
+      <c r="I133" t="inlineStr">
+        <is>
+          <t>12 pages, 8 figures</t>
+        </is>
+      </c>
+      <c r="J133" t="inlineStr"/>
+      <c r="K133" t="inlineStr">
+        <is>
+          <t>physics.ed-ph</t>
+        </is>
+      </c>
+      <c r="L133" t="inlineStr">
+        <is>
+          <t>physics.ed-ph, eess.IV, quant-ph</t>
+        </is>
+      </c>
+      <c r="M133" t="inlineStr">
+        <is>
+          <t>http://arxiv.org/abs/2508.21321v1</t>
+        </is>
+      </c>
+      <c r="N133" t="inlineStr">
+        <is>
+          <t>http://arxiv.org/pdf/2508.21321v1</t>
+        </is>
+      </c>
+      <c r="O133" t="inlineStr">
+        <is>
+          <t>Project-Based Learning effectively addresses the challenges of understanding quantum computing concepts.
+Students applied the HHL algorithm to CT image reconstruction, comparing it with classical methods.
+This experiential learning fostered deeper understanding, research skills, and engagement with quantum technologies.</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>http://arxiv.org/abs/2508.21122v1</t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>2025-08-28T18:00:06Z</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>2025-08-28T18:00:06Z</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>Quantum algorithms for equational reasoning</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>We introduce quantum normal form reduction, a quantum computational framework for analyzing abstract symbolic expressions - such as strings, algebraic formulas, or quantum circuits - that are equivalent under a given set of transformation rules. These rules form a term rewriting system, a formal method for deriving equivalences by repeatedly applying substitutions. We construct an efficiently implementable quantum Hamiltonian whose ground state encodes the entire class of equivalent expressions - potentially exponentially many - in a quantum superposition. By preparing and manipulating these ground states, we address fundamental problems in equational reasoning, including the word problem, i.e., determining whether two expressions are equivalent, counting the number of equivalent expressions, and identifying structural properties of equivalence classes. We demonstrate a quantum-inspired version of the algorithm using tensor network simulations by solving instances involving up to $10^{28}$ equivalent expressions, well beyond the reach of standard classical graph exploration techniques. This framework opens the path for quantum symbolic computation in areas ranging from quantum and logical circuit design to data compression, computational group theory, linguistics, polymers and biomolecular modeling, enabling the investigation of problems previously out of reach.</t>
+        </is>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>Davide Rattacaso, Daniel Jaschke, Marco Ballarin, Ilaria Siloi, Simone Montangero</t>
+        </is>
+      </c>
+      <c r="G134" t="inlineStr"/>
+      <c r="H134" t="inlineStr"/>
+      <c r="I134" t="inlineStr">
+        <is>
+          <t>10 pages, 9 figures</t>
+        </is>
+      </c>
+      <c r="J134" t="inlineStr"/>
+      <c r="K134" t="inlineStr">
+        <is>
+          <t>quant-ph</t>
+        </is>
+      </c>
+      <c r="L134" t="inlineStr">
+        <is>
+          <t>quant-ph</t>
+        </is>
+      </c>
+      <c r="M134" t="inlineStr">
+        <is>
+          <t>http://arxiv.org/abs/2508.21122v1</t>
+        </is>
+      </c>
+      <c r="N134" t="inlineStr">
+        <is>
+          <t>http://arxiv.org/pdf/2508.21122v1</t>
+        </is>
+      </c>
+      <c r="O134" t="inlineStr">
+        <is>
+          <t>This research develops a quantum framework for analyzing symbolic expressions via a quantum Hamiltonian encoding equivalence in superposition. It leverages tensor network simulations to explore exponentially large sets of equivalent expressions, overcoming classical limitations. This approach enables novel investigations across diverse fields including quantum computing and data analysis.</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>http://arxiv.org/abs/2509.03619v1</t>
+        </is>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>2025-09-03T18:13:04Z</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>2025-09-03T18:13:04Z</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>Quantum algorithms for Uhlmann transformation</t>
+        </is>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>Uhlmann's theorem is a central result in quantum information theory, associating the closeness of two quantum states with that of their purifications. This theorem well characterizes the fundamental task of transforming a quantum state into another state via local operations on its subsystem. The optimal transformation for this task is called the Uhlmann transformation, which has broad applications in various fields; however, its quantum circuit implementation and computational cost have remained unclear. In this work, we fill this gap by proposing quantum query and sample algorithms that realize the Uhlmann transformation in the form of quantum circuits. These algorithms achieve exponential improvements in computational costs, including query and sample complexities, over naive approaches based on state measurements such as quantum state tomography, under certain computational models. We apply our algorithms to the square root fidelity estimation task and particularly show that our approach attains a better query complexity than the prior state-of-the-art. Furthermore, we discuss applications to several information-theoretic tasks, specifically, entanglement transmission, quantum state merging, and algorithmic implementation of the Petz recovery map, providing a comprehensive evaluation of the computational costs.</t>
+        </is>
+      </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>Takeru Utsumi, Yoshifumi Nakata, Qisheng Wang, Ryuji Takagi</t>
+        </is>
+      </c>
+      <c r="G135" t="inlineStr"/>
+      <c r="H135" t="inlineStr"/>
+      <c r="I135" t="inlineStr">
+        <is>
+          <t>58 pages, 4 figures, 3 tables</t>
+        </is>
+      </c>
+      <c r="J135" t="inlineStr"/>
+      <c r="K135" t="inlineStr">
+        <is>
+          <t>quant-ph</t>
+        </is>
+      </c>
+      <c r="L135" t="inlineStr">
+        <is>
+          <t>quant-ph</t>
+        </is>
+      </c>
+      <c r="M135" t="inlineStr">
+        <is>
+          <t>http://arxiv.org/abs/2509.03619v1</t>
+        </is>
+      </c>
+      <c r="N135" t="inlineStr">
+        <is>
+          <t>http://arxiv.org/pdf/2509.03619v1</t>
+        </is>
+      </c>
+      <c r="O135" t="inlineStr">
+        <is>
+          <t>Uhlmann’s theorem links quantum state closeness to purification, driving the need for efficient transformation methods.
+This work presents quantum query and sample algorithms that dramatically reduce the computational cost of implementing the Uhlmann transformation.
+The algorithms demonstrate exponential improvements in complexity, particularly in square root fidelity estimation, and offer solutions to related information-theoretic problems.</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>http://arxiv.org/abs/2509.01359v1</t>
+        </is>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>2025-09-01T10:56:50Z</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>2025-09-01T10:56:50Z</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>Heisenberg limited quantum algorithm for estimating the fidelity   susceptibility</t>
+        </is>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>The fidelity susceptibility serves as a universal probe for quantum phase transitions, offering an order-parameter-free metric that captures ground-state sensitivity to Hamiltonian perturbations and exhibits critical scaling. Classical computation of this quantity, however, is limited by exponential Hilbert space growth and correlation divergence near criticality, restricting analyses to small or specialized systems. Here, we present a quantum algorithm that achieves efficient and Heisenberg-limited estimation of fidelity susceptibility through a novel resolvent reformulation, leveraging quantum singular value transformation for pseudoinverse block encoding with amplitude estimation for norm evaluation. This constitutes the first quantum algorithm for fidelity susceptibility with optimal precision scaling. Moreover, for frustration-free Hamiltonians, we show that the resolvent can be approximated with a further quadratic speedup. Our work bridges quantum many-body physics and algorithmic design, enabling scalable exploration of quantum criticality with applications in materials simulation, metrology, and beyond on fault-tolerant quantum platforms.</t>
+        </is>
+      </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>Yukun Zhang, Xiao Yuan</t>
+        </is>
+      </c>
+      <c r="G136" t="inlineStr"/>
+      <c r="H136" t="inlineStr"/>
+      <c r="I136" t="inlineStr">
+        <is>
+          <t>12 pages</t>
+        </is>
+      </c>
+      <c r="J136" t="inlineStr"/>
+      <c r="K136" t="inlineStr">
+        <is>
+          <t>quant-ph</t>
+        </is>
+      </c>
+      <c r="L136" t="inlineStr">
+        <is>
+          <t>quant-ph</t>
+        </is>
+      </c>
+      <c r="M136" t="inlineStr">
+        <is>
+          <t>http://arxiv.org/abs/2509.01359v1</t>
+        </is>
+      </c>
+      <c r="N136" t="inlineStr">
+        <is>
+          <t>http://arxiv.org/pdf/2509.01359v1</t>
+        </is>
+      </c>
+      <c r="O136" t="inlineStr">
+        <is>
+          <t>A new quantum algorithm efficiently computes fidelity susceptibility, overcoming classical limitations of exponential growth. 
+It utilizes a resolvent reformulation and quantum singular value transformation for optimal precision.
+This enables scalable exploration of quantum criticality, particularly for frustration-free Hamiltonians, with potential applications in materials science.</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>http://arxiv.org/abs/2509.02689v1</t>
+        </is>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>2025-09-02T18:00:05Z</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>2025-09-02T18:00:05Z</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>Quantum DPLL and Generalized Constraints in Iterative Quantum Algorithms</t>
+        </is>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>Too often, quantum computer scientists seek to create new algorithms entirely fresh from new cloth when there are extensive and optimized classical algorithms that can be generalized wholesale. At the same time, one may seek to maintain classical advantages of performance and runtime bounds, while enabling potential quantum improvement. Hybrid quantum algorithms tap into this potential, and here we explore a class of hybrid quantum algorithms called Iterative Quantum Algorithms (IQA) that are closely related to classical greedy or local search algorithms, employing a structure where the quantum computer provides information that leads to a simplified problem for future iterations. Specifically, we extend these algorithms beyond past results that considered primarily quadratic problems to arbitrary k-local Hamiltonians, proposing a general framework that incorporates logical inference in a fundamental way. As an application we develop a hybrid quantum version of the well-known classical Davis-Putnam-Logemann-Loveland (DPLL) algorithm for satisfiability problems, which embeds IQAs within a complete backtracking based tree search framework. Our results also provide a general framework for handling problems with hard constraints in IQAs. We further show limiting cases of the algorithms where they reduce to classical algorithms, and provide evidence for regimes of quantum improvement.</t>
+        </is>
+      </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>Lucas T. Brady, Stuart Hadfield</t>
+        </is>
+      </c>
+      <c r="G137" t="inlineStr"/>
+      <c r="H137" t="inlineStr"/>
+      <c r="I137" t="inlineStr">
+        <is>
+          <t>16 pages, 4 figures</t>
+        </is>
+      </c>
+      <c r="J137" t="inlineStr"/>
+      <c r="K137" t="inlineStr">
+        <is>
+          <t>quant-ph</t>
+        </is>
+      </c>
+      <c r="L137" t="inlineStr">
+        <is>
+          <t>quant-ph</t>
+        </is>
+      </c>
+      <c r="M137" t="inlineStr">
+        <is>
+          <t>http://arxiv.org/abs/2509.02689v1</t>
+        </is>
+      </c>
+      <c r="N137" t="inlineStr">
+        <is>
+          <t>http://arxiv.org/pdf/2509.02689v1</t>
+        </is>
+      </c>
+      <c r="O137" t="inlineStr">
+        <is>
+          <t>Hybrid quantum algorithms, specifically Iterative Quantum Algorithms (IQAs), leverage classical search techniques for problem simplification.
+This framework expands IQAs to handle arbitrary k-local Hamiltonians and integrates logical inference.
+The research demonstrates a hybrid DPLL algorithm and offers a general framework with potential for quantum advantage.</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>http://arxiv.org/abs/2509.07452v1</t>
+        </is>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>2025-09-09T07:24:29Z</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>2025-09-09T07:24:29Z</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>Near optimal quantum algorithm for estimating Shannon entropy</t>
+        </is>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>We present a near-optimal quantum algorithm, up to logarithmic factors, for estimating the Shannon entropy in the quantum probability oracle model. Our approach combines the singular value separation algorithm with quantum amplitude amplification, followed by the application of quantum singular value transformation. On the lower bound side, we construct probability distributions encoded via Hamming weights in the oracle, establishing a tight query lower bound up to logarithmic factors. Consequently, our results show that the tight query complexity for estimating the Shannon entropy within $\epsilon$-additive error is given by $\tilde{\Theta}\left(\tfrac{\sqrt{n}}{\epsilon}\right)$.</t>
+        </is>
+      </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>Myeongjin Shin, Kabgyun Jeong</t>
+        </is>
+      </c>
+      <c r="G138" t="inlineStr"/>
+      <c r="H138" t="inlineStr"/>
+      <c r="I138" t="inlineStr"/>
+      <c r="J138" t="inlineStr"/>
+      <c r="K138" t="inlineStr">
+        <is>
+          <t>quant-ph</t>
+        </is>
+      </c>
+      <c r="L138" t="inlineStr">
+        <is>
+          <t>quant-ph</t>
+        </is>
+      </c>
+      <c r="M138" t="inlineStr">
+        <is>
+          <t>http://arxiv.org/abs/2509.07452v1</t>
+        </is>
+      </c>
+      <c r="N138" t="inlineStr">
+        <is>
+          <t>http://arxiv.org/pdf/2509.07452v1</t>
+        </is>
+      </c>
+      <c r="O138" t="inlineStr">
+        <is>
+          <t>A quantum algorithm estimates Shannon entropy using singular value separation and amplitude amplification.  It establishes a tight query lower bound up to logarithmic factors. The algorithm achieves a query complexity of $\tilde{\Theta}\left(\tfrac{\sqrt{n}}{\epsilon}\right)$ for $\epsilon$-additive error.</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>http://arxiv.org/abs/2509.05804v1</t>
+        </is>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>2025-09-06T18:39:10Z</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>2025-09-06T18:39:10Z</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>Genetic optimization of ansatz expressibility for enhanced variational   quantum algorithm performance</t>
+        </is>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>Variational quantum algorithms have emerged as a leading paradigm that extracts practical computation from near-term intermediate-scale quantum devices, enabling advances in quantum chemistry simulations, combinatorial optimization, and quantum machine learning. However, the performance of Variational Quantum Algorithms is highly sensitive to the design of the ansatze. To be effective, ansatze must be expressive enough to capture target states but shallow enough to be trainable. We propose a genetic algorithm-inspired framework for designing ansatze that achieve high expressibility while maintaining shallow depth and low parameter count. Our approach evolves ansatze through mutation and selection based on an expressibility metric. The circuit generated by our framework consistently demonstrates high expressibility at any target depth and performs comparably to traditional ansatz design approaches while showing minimal to no signs of barren plateau issues. This work presents a general, scalable solution for ansatz design, producing expressive, low-depth circuits that need to be designed only once and can serve a wide range of applications.</t>
+        </is>
+      </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>Manish Mallapur, Ronit Raj, Ankur Raina</t>
+        </is>
+      </c>
+      <c r="G139" t="inlineStr"/>
+      <c r="H139" t="inlineStr"/>
+      <c r="I139" t="inlineStr"/>
+      <c r="J139" t="inlineStr"/>
+      <c r="K139" t="inlineStr">
+        <is>
+          <t>quant-ph</t>
+        </is>
+      </c>
+      <c r="L139" t="inlineStr">
+        <is>
+          <t>quant-ph</t>
+        </is>
+      </c>
+      <c r="M139" t="inlineStr">
+        <is>
+          <t>http://arxiv.org/abs/2509.05804v1</t>
+        </is>
+      </c>
+      <c r="N139" t="inlineStr">
+        <is>
+          <t>http://arxiv.org/pdf/2509.05804v1</t>
+        </is>
+      </c>
+      <c r="O139" t="inlineStr">
+        <is>
+          <t>A novel genetic algorithm designs variational quantum ansatze for improved performance. 
+The framework optimizes circuit expressibility and depth while minimizing barren plateau issues. 
+This scalable approach generates effective ansatze applicable across various quantum applications.</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>http://arxiv.org/abs/2509.07155v1</t>
+        </is>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>2025-09-08T19:09:05Z</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>2025-09-08T19:09:05Z</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>Quantum algorithms for general nonlinear dynamics based on the Carleman   embedding</t>
+        </is>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>Important nonlinear dynamics, such as those found in plasma and fluid systems, are typically hard to simulate on classical computers. Thus, if fault-tolerant quantum computers could efficiently solve such nonlinear problems, it would be a transformative change for many industries. In a recent breakthrough [Liu et al., PNAS 2021], the first efficient quantum algorithm for solving nonlinear differential equations was constructed, based on a single condition $R&lt;1$, where $R$ characterizes the ratio of nonlinearity to dissipation. This result, however, is limited to the class of purely dissipative systems with negative log-norm, which excludes application to many important problems. In this work, we correct technical issues with this and other prior analysis, and substantially extend the scope of nonlinear dynamical systems that can be efficiently simulated on a quantum computer in a number of ways. Firstly, we extend the existing results from purely dissipative systems to a much broader class of stable systems, and show that every quadratic Lyapunov function for the linearized system corresponds to an independent $R$-number criterion for the convergence of the Carlemen scheme. Secondly, we extend our stable system results to physically relevant settings where conserved polynomial quantities exist. Finally, we provide extensive results for the class of non-resonant systems. With this, we are able to show that efficient quantum algorithms exist for a much wider class of nonlinear systems than previously known, and prove the BQP-completeness of nonlinear oscillator problems of exponential size. In our analysis, we also obtain several results related to the Poincar\'{e}-Dulac theorem and diagonalization of the Carleman matrix, which could be of independent interest.</t>
+        </is>
+      </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>David Jennings, Kamil Korzekwa, Matteo Lostaglio, Andrew T Sornborger, Yigit Subasi, Guoming Wang</t>
+        </is>
+      </c>
+      <c r="G140" t="inlineStr"/>
+      <c r="H140" t="inlineStr"/>
+      <c r="I140" t="inlineStr">
+        <is>
+          <t>70+78 pages, 4 figures. Comments welcome!</t>
+        </is>
+      </c>
+      <c r="J140" t="inlineStr"/>
+      <c r="K140" t="inlineStr">
+        <is>
+          <t>quant-ph</t>
+        </is>
+      </c>
+      <c r="L140" t="inlineStr">
+        <is>
+          <t>quant-ph, cs.DS, cs.NA, math.NA</t>
+        </is>
+      </c>
+      <c r="M140" t="inlineStr">
+        <is>
+          <t>http://arxiv.org/abs/2509.07155v1</t>
+        </is>
+      </c>
+      <c r="N140" t="inlineStr">
+        <is>
+          <t>http://arxiv.org/pdf/2509.07155v1</t>
+        </is>
+      </c>
+      <c r="O140" t="inlineStr">
+        <is>
+          <t>Researchers developed an efficient quantum algorithm for simulating nonlinear dynamical systems. 
+The algorithm’s scope was expanded to include stable systems with quadratic Lyapunov functions and conserved quantities.
+This expansion demonstrates BQP-completeness for large nonlinear oscillator problems, significantly broadening the potential applications of quantum simulation.</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
